--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\AOCoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS India 2.1 - Input Data Revisions_17Mar2020\AOCoLUPpUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A0B5F1-5DB7-4C23-B386-023F0FFCD94C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C9D0BF-6208-443B-BEAD-360869154E13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
@@ -274,8 +273,29 @@
     <t>Implementation Cost per Policy</t>
   </si>
   <si>
+    <t>policy implementation cost ($ / acre)</t>
+  </si>
+  <si>
+    <t>O&amp;M costs for Green India Mission</t>
+  </si>
+  <si>
+    <t>Source: MoEFCC, Annex I - Tentative Mission Costs</t>
+  </si>
+  <si>
+    <t>O&amp;M %</t>
+  </si>
+  <si>
+    <t>Costs for general forest management in Kerala state (reference only)</t>
+  </si>
+  <si>
+    <t>(assumed to be half of mission org, O&amp;M,</t>
+  </si>
+  <si>
+    <t>contingencies and overheads component)</t>
+  </si>
+  <si>
     <r>
-      <t>from</t>
+      <t>See</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +306,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ICoLUPpUA</t>
+      <t xml:space="preserve"> land/ICoLUPpUA</t>
     </r>
     <r>
       <rPr>
@@ -298,27 +318,6 @@
       </rPr>
       <t xml:space="preserve"> variable</t>
     </r>
-  </si>
-  <si>
-    <t>policy implementation cost ($ / acre)</t>
-  </si>
-  <si>
-    <t>O&amp;M costs for Green India Mission</t>
-  </si>
-  <si>
-    <t>Source: MoEFCC, Annex I - Tentative Mission Costs</t>
-  </si>
-  <si>
-    <t>O&amp;M %</t>
-  </si>
-  <si>
-    <t>Costs for general forest management in Kerala state (reference only)</t>
-  </si>
-  <si>
-    <t>(assumed to be half of mission org, O&amp;M,</t>
-  </si>
-  <si>
-    <t>contingencies and overheads component)</t>
   </si>
 </sst>
 </file>
@@ -679,10 +678,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -690,6 +685,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -815,47 +814,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="AfforestationRestoration"/>
-      <sheetName val="ForestManagement"/>
-      <sheetName val="ICoLUPpUA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="9">
-          <cell r="F9">
-            <v>1042.7688329302873</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>2781.0236747611216</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>1443.1257987949609</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="16">
-          <cell r="A16">
-            <v>186.76570000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1184,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1212,7 +1170,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="41" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1228,7 +1186,7 @@
       <c r="B5" s="2">
         <v>2018</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="42">
         <v>2014</v>
       </c>
     </row>
@@ -1257,13 +1215,13 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,10 +1613,10 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="29">
         <v>9023.9549999999999</v>
       </c>
@@ -1708,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D59FE7-CBC6-4CDB-86C2-AA8A8F46311F}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,10 +1678,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1739,10 +1697,10 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="46">
+      <c r="C2" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="44">
         <f>0.04/2</f>
         <v>0.02</v>
       </c>
@@ -1752,11 +1710,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>[2]AfforestationRestoration!F9</f>
         <v>1042.7688329302873</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>84</v>
+      <c r="C3" s="45" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1764,11 +1721,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <f>[2]ForestManagement!A16</f>
         <v>186.76570000000001</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>85</v>
+      <c r="C4" s="45" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,7 +1732,6 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>[2]AfforestationRestoration!F25</f>
         <v>1443.1257987949609</v>
       </c>
     </row>
@@ -1793,13 +1748,12 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f>[2]AfforestationRestoration!F18</f>
         <v>2781.0236747611216</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1770,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS India 2.1 - Input Data Revisions_17Mar2020\AOCoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\land\AOCoLUPpUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C9D0BF-6208-443B-BEAD-360869154E13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -323,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,14 +690,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Footnotes: top row" xfId="3"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Table title" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,23 +894,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -947,23 +929,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1139,24 +1104,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="51.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1182,7 +1147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
@@ -1190,7 +1155,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1198,7 +1163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -1214,118 +1179,118 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K10" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" xr:uid="{965197AA-2B34-4909-8176-7D043C578279}"/>
+    <hyperlink ref="K7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1333,22 +1298,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB9F7F8-1F08-48BD-BC5B-19DA8CC5F907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.86328125" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1378,7 +1343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +1354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="13" t="s">
         <v>26</v>
@@ -1417,7 +1382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="13" t="s">
         <v>25</v>
@@ -1437,7 +1402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1446,10 +1411,12 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="34">
+        <v>5.9981900000000001</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="39" t="s">
         <v>57</v>
@@ -1461,7 +1428,7 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1441,7 @@
         <v>113.404</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1454,7 @@
         <v>1313.8430000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>58</v>
       </c>
@@ -1496,7 +1463,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
@@ -1509,14 +1476,14 @@
         <v>326.41899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="26" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1492,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +1503,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="13" t="s">
         <v>32</v>
@@ -1547,7 +1514,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="13" t="s">
         <v>61</v>
@@ -1558,7 +1525,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
         <v>33</v>
@@ -1569,42 +1536,42 @@
         <v>4597.5290000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D19" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="37">
         <f>SUM(E5:E18)*10^5</f>
-        <v>1175523900.0000002</v>
+        <v>1176123719.0000002</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D20" s="14"/>
       <c r="E20" s="34">
         <f>E19/H2</f>
-        <v>17121615.618441157</v>
+        <v>17130352.038312025</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D21" s="15"/>
       <c r="E21" s="38">
         <f>E20*H6</f>
-        <v>15654761.580921197</v>
+        <v>15662749.528624097</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -1612,7 +1579,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="46" t="s">
         <v>62</v>
       </c>
@@ -1624,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C25">
         <v>247.10499999999999</v>
       </c>
@@ -1632,7 +1599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C26">
         <f>C24*C25</f>
         <v>2229864.4002749999</v>
@@ -1641,13 +1608,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="30">
         <f>E21/C26</f>
-        <v>7.0204993536784395</v>
+        <v>7.0240816108335897</v>
       </c>
       <c r="F28" t="s">
         <v>48</v>
@@ -1663,20 +1630,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D59FE7-CBC6-4CDB-86C2-AA8A8F46311F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>78</v>
       </c>
@@ -1690,7 +1657,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1672,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1716,18 +1683,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>186.76570000000001</v>
+        <v>5.9981900000000001</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1702,7 @@
         <v>1443.1257987949609</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1718,7 @@
         <v>2781.0236747611216</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G16" s="9" t="s">
         <v>80</v>
       </c>
@@ -1763,27 +1730,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,16 +1768,16 @@
         <v>20.855376658605746</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
         <f>'Costs from ICoLUPpUA'!B4*'Costs from ICoLUPpUA'!$D$2</f>
-        <v>3.7353140000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.11996380000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +1786,7 @@
         <v>28.862515975899218</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
